--- a/WpfTennis/WpfTennis/bin/Debug/Ace Club/FichierMembresAce Club.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Ace Club/FichierMembresAce Club.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\Informatique C#\Esilv_année_2019\Wpf_Tennis\WpfTennis\WpfTennis\bin\Debug\Ace Club\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Ace Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282B349-7897-44B1-A21B-798FFA3297C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC666BB4-F158-4415-A9BC-A1BDE9B708F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="0" windowWidth="17280" windowHeight="7692" xr2:uid="{3C94EAE1-C335-45FF-B7F2-E0D4F0983EA6}"/>
+    <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{3C94EAE1-C335-45FF-B7F2-E0D4F0983EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Sylvie</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>20 rue de la pierre</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>21 rue de la pierre</t>
   </si>
   <si>
     <t>Julie</t>
@@ -523,25 +517,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>29268</v>
@@ -550,33 +544,33 @@
         <v>602050809</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>28773</v>
@@ -585,33 +579,33 @@
         <v>602050809</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>29390</v>
@@ -620,33 +614,33 @@
         <v>602050809</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>29170</v>
@@ -655,33 +649,33 @@
         <v>621031356</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>39524</v>
@@ -690,156 +684,127 @@
         <v>602050809</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
-        <v>28598</v>
+        <v>29449</v>
       </c>
       <c r="G7" s="1">
         <v>602050809</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>33156</v>
+      </c>
+      <c r="G8" s="1">
+        <v>789654123</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2">
-        <v>29449</v>
-      </c>
-      <c r="G8" s="1">
-        <v>602050809</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
-        <v>33156</v>
+        <v>29520</v>
       </c>
       <c r="G9">
-        <v>789654123</v>
+        <v>625987698</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>1200</v>
-      </c>
-      <c r="J9">
-        <v>4.5999999999999996</v>
+        <v>10000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2">
-        <v>29520</v>
-      </c>
-      <c r="G10">
-        <v>625987698</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <v>10000</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
